--- a/typescountssizeanalysis.xlsx
+++ b/typescountssizeanalysis.xlsx
@@ -1168,7 +1168,7 @@
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
